--- a/CC37TmplProject/Design/数据表/文本表.xlsx
+++ b/CC37TmplProject/Design/数据表/文本表.xlsx
@@ -67,10 +67,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Flag</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>s0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/CC37TmplProject/Design/数据表/文本表.xlsx
+++ b/CC37TmplProject/Design/数据表/文本表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\likehole\jk\Pxc-Game-Frame\CC37TmplProject\Design\数据表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7650"/>
   </bookViews>
@@ -33,36 +38,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
     <t>标识文字</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -84,6 +59,46 @@
   </si>
   <si>
     <t>Tag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>戊</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>己</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>庚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>壬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>癸</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -684,24 +699,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -716,15 +731,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -733,12 +748,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -780,7 +798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,7 +833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1066,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1074,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1082,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1090,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1098,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1106,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1114,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1122,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -1130,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -1138,12 +1156,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1165,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1176,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1187,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1200,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
